--- a/biology/Botanique/Parc_du_Président/Parc_du_Président.xlsx
+++ b/biology/Botanique/Parc_du_Président/Parc_du_Président.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_du_Pr%C3%A9sident</t>
+          <t>Parc_du_Président</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc du Président (en anglais, President's Park) est un parc situé au centre de Washington aux États-Unis. Il comprend la Maison-Blanche et ses jardins, un centre pour visiteurs, le parc Lafayette et l'Ellipse, ces deux derniers sites étant ouverts au public. Il est coupé au nord par la Pennsylvania Avenue, séparant le parc Lafayette de la Maison-Blanche et donne au sud sur le Washington Monument. Le parc est géré par le National Park Service.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_du_Pr%C3%A9sident</t>
+          <t>Parc_du_Président</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Maison-Blanche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le complexe de la Maison-Blanche est situé au 1600 Pennsylvania Avenue, NW. il comprend :
 L’Executive Residence, le bâtiment historique et résidence officielle du président des États-Unis. La résidence est ouverte au public pour des visites de groupes réservées. Des demandes pour de telles visites doivent être soumises par un membre du Congrès et accepté un à six mois à l'avance.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_du_Pr%C3%A9sident</t>
+          <t>Parc_du_Président</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Le Visitor Center de la Maison-Blanche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est situé au nord du Herbert C. Hoover Building (siège du département du Commerce des États-Unis entre la 14e rue et Pennsylvania Avenue). Le Visitor Center sert de point de départ pour ceux qui ont réservé une visite de la Maison-Blanche. Il abrite aussi plusieurs expositions ouvertes au public sur la Maison-Blanche dont six permanentes avec pour thème : les familles présidentielles, symboles et images, architecture de la Maison-Blanche, les intérieurs de la Maison-Blanche, la Maison-Blanche au travail et cérémonies et célébrations. D'autres expositions varient au cours de l'année.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parc_du_Pr%C3%A9sident</t>
+          <t>Parc_du_Président</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Parc Lafayette</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un parc public de 30 000 m2 public situé directement au nord de la Maison-Blanche sur H. Street. Il est bordé par la Jackson Place à l'ouest, Madison Place à l'est et Pennsylvania Avenue NW au sud. Le parc et les structures environnantes ont été déclarés comme un National Historic Landmark District en 1970. Prévu comme espace de loisirs autour de l'Executive Mansion, ce parc était à l'origine appelé « President's Park » ce qui est maintenant le nom de l'ensemble du domaine géré par le National Park.
 Le parc fut séparé de la Maison-Blanche en 1804, quand le président Thomas Jefferson fit percer la Pennsylvania Avenue. En 1824, le parc fut officiellement renommé en l'honneur du marquis français Gilbert du Motier de La Fayette, qui avait combattu lors de la guerre d'Indépendance.
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parc_du_Pr%C3%A9sident</t>
+          <t>Parc_du_Président</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>L'Ellipse</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le President's Park South, plus communément appelé l'Ellipse, est un parc de 210 000 m2 situé juste au sud de la Maison-Blanche. À proprement parler, l'Ellipse est le nom de la rue en forme d'ellipse d'un kilomètre de circonférence située dans la partie centrale du parc du Président. L'intégralité du parc est ouvert au public.
 On peut y trouver :
@@ -636,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parc_du_Pr%C3%A9sident</t>
+          <t>Parc_du_Président</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -654,7 +674,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1791, le premier plan du parc est dessiné par Pierre Charles L'Enfant. L'Ellipse était alors connue sous le nom de « the White Lot » à cause de la barrière en bois blanchi qui fermait le parc.
 Durant la guerre de Sécession, les terrains de l'Ellipse et de l’encore inachevé Washington Monument servent de corrals pour les chevaux, mules et autres bêtes de bétail ainsi que de site de campement pour les troupes de l'Union.
@@ -673,7 +695,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parc_du_Pr%C3%A9sident</t>
+          <t>Parc_du_Président</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -691,7 +713,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) The National Parks: Index 2001-2003. Washington, département de l'Intérieur des États-Unis.</t>
         </is>
@@ -703,7 +727,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parc_du_Pr%C3%A9sident</t>
+          <t>Parc_du_Président</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -721,7 +745,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « President's Park » (voir la liste des auteurs).</t>
         </is>
